--- a/Princeton'ing for Quaran-teens (Responses) (1).xlsx
+++ b/Princeton'ing for Quaran-teens (Responses) (1).xlsx
@@ -1,84 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkzr3\VirtualVisitas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="8196"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C5">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G5">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H5">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="J5">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C6">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C8">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C12">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C21">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G21">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C24">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C29">
+    <comment ref="C29" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H42">
+    <comment ref="H42" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C43">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -86,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="676">
   <si>
     <t>Timestamp</t>
   </si>
@@ -106,9 +205,6 @@
     <t>Where are you from?</t>
   </si>
   <si>
-    <t>What do you want (or are considering) to concentrate in?</t>
-  </si>
-  <si>
     <t>What do you want (or considering) to certificate in?</t>
   </si>
   <si>
@@ -2111,72 +2207,83 @@
   </si>
   <si>
     <t>New Wave</t>
+  </si>
+  <si>
+    <t>Undecided</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2366,26 +2473,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="21" width="21.57"/>
+    <col min="1" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2405,3476 +2515,3479 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>43908.824133831018</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>43908.82413383102</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43908.82652736111</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>43908.827141388887</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>43908.82714138889</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>43911.59327114583</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>43911.590933101848</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>43911.59093310185</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43908.84235288194</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>43911.598847048612</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>43911.59884704861</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>43908.876570393521</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>43908.87657039352</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>43908.885892650462</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>43908.88589265046</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43908.966965706015</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>43911.59386789352</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>43909.045251203701</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>43909.0452512037</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>43909.056766898153</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>43909.05676689815</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43909.51683069444</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>43909.524919467593</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>43909.52491946759</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>43909.566395844908</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>43909.56639584491</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43909.584793587965</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>43909.587646319444</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>43909.58764631944</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43909.59209204861</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>43911.597258310183</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>43911.59725831018</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>43909.602369502318</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>43909.60236950232</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>43909.613704479169</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>43909.61370447917</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>43911.591038854167</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>43911.59103885417</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>43909.637329618054</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>43909.63732961805</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>43909.642530381941</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>43909.64253038194</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>43909.778543136577</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>43909.77854313658</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>43909.791688472222</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>43909.79168847222</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>43911.60397783565</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43910.426103680555</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>43910.428374756943</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>43910.42837475694</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>43910.428435300928</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>43910.42843530093</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>43910.428983761572</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>43910.42898376157</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>43910.429080462964</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>43910.42908046296</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43910.432711284724</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>43910.435492997683</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>43910.43549299768</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43910.43701465278</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43910.448714224534</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>43910.449256018517</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>43910.44925601852</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>43911.590701643523</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
-        <v>43911.59070164352</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43910.45507974537</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="O41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>43911.592367372687</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
-        <v>43911.59236737269</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>43911.601951712961</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
-        <v>43911.60195171296</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>43910.477182951392</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>43910.47718295139</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43910.505393680556</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43910.52287079861</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K46" s="3" t="s">
+    </row>
+    <row r="47" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>43910.526321145837</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>43910.52632114584</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K47" s="3" t="s">
+    </row>
+    <row r="48" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>43910.533440613421</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>43910.53344061342</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="O48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>43910.539616041671</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>43910.53961604167</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43910.540666932866</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>43911.591397337965</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>43910.562917974537</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>43910.567317083332</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2">
-        <v>43910.56291797454</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2">
-        <v>43910.56731708333</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43910.568153229164</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K54" s="3" t="s">
+    </row>
+    <row r="55" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>43910.581489467593</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2">
-        <v>43910.58148946759</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="K55" s="3" t="s">
+    </row>
+    <row r="56" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>43910.586171516203</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2">
-        <v>43910.5861715162</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="O56" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43910.597600277775</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>43910.603725914349</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>43910.605381493056</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2">
-        <v>43910.60372591435</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>43910.610065601853</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>43910.632669166662</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>43910.633397037032</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>43910.654943668982</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2">
-        <v>43910.60538149306</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2">
-        <v>43910.61006560185</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2">
-        <v>43910.63266916666</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2">
-        <v>43910.63339703703</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2">
-        <v>43910.65494366898</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43910.670603969906</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="N64" s="3" t="s">
+    </row>
+    <row r="65" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>43910.673511793982</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2">
-        <v>43910.67351179398</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43910.687641111115</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>43911.59121460648</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="H67" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>43910.693899479171</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>43910.758586238429</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>43910.760375034719</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2">
-        <v>43910.69389947917</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2">
-        <v>43910.75858623843</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2">
-        <v>43910.76037503472</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="O70" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="O70" s="3" t="s">
+    </row>
+    <row r="71" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>43910.786237118053</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2">
-        <v>43910.78623711805</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="O71" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43910.835910497684</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>43910.842039571755</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>43910.844530983799</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2">
-        <v>43910.8445309838</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="K74" s="3" t="s">
+    </row>
+    <row r="75" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>43910.882739687499</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2">
-        <v>43910.8827396875</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>43911.074286400464</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="O76" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>43911.090456527774</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="O77" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="O77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>43911.096294027782</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2">
-        <v>43911.09629402778</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="K78" s="3" t="s">
+    </row>
+    <row r="79" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>43911.136549178242</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2">
-        <v>43911.13654917824</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="N79" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>43911.436285891206</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="L80" s="3" t="s">
+    </row>
+    <row r="81" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>43911.477913784722</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2">
-        <v>43911.47791378472</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="L81" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L81" s="3" t="s">
+    </row>
+    <row r="82" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>43911.480076770837</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2">
-        <v>43911.48007677084</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="L82" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="83">
+    </row>
+    <row r="83" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>43911.4934474537</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>43911.50584805556</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>43911.531067337964</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="K85" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>43911.54233462963</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>43911.555568298616</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="I87" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>43911.579053923611</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>43911.582692743061</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2">
-        <v>43911.57905392361</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2">
-        <v>43911.58269274306</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>43911.59067636574</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="I90" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>43911.588384907409</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>43911.588462523148</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2">
-        <v>43911.58838490741</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2">
-        <v>43911.58846252315</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="G92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K92" s="3" t="s">
+    </row>
+    <row r="93" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>43911.594951354171</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2">
-        <v>43911.59495135417</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="H93" s="3" t="s">
+      <c r="I93" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="K93" s="3" t="s">
+    </row>
+    <row r="94" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>43911.599757534721</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2">
-        <v>43911.59975753472</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="I94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>43911.60499925926</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K95" s="3" t="s">
+    </row>
+    <row r="96" spans="1:15" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>43911.604521423607</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2">
-        <v>43911.60452142361</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="M96" s="3" t="s">
+    </row>
+    <row r="97" spans="1:13" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <v>43911.608542303242</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4">
-        <v>43911.60854230324</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="M97" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="M97" s="3" t="s">
-        <v>674</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>